--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Comp-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Comp-Itgb3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4181183333333333</v>
+        <v>0.2989916666666667</v>
       </c>
       <c r="H2">
-        <v>1.254355</v>
+        <v>0.896975</v>
       </c>
       <c r="I2">
-        <v>0.01571144052599341</v>
+        <v>0.01120651476222736</v>
       </c>
       <c r="J2">
-        <v>0.01571144052599341</v>
+        <v>0.01120651476222736</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N2">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q2">
-        <v>3.75054151968</v>
+        <v>0.03305412673333333</v>
       </c>
       <c r="R2">
-        <v>33.75487367712</v>
+        <v>0.2974871406</v>
       </c>
       <c r="S2">
-        <v>0.00765318067394241</v>
+        <v>0.0001262133233942159</v>
       </c>
       <c r="T2">
-        <v>0.007653180673942408</v>
+        <v>0.000126213323394216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4181183333333333</v>
+        <v>0.2989916666666667</v>
       </c>
       <c r="H3">
-        <v>1.254355</v>
+        <v>0.896975</v>
       </c>
       <c r="I3">
-        <v>0.01571144052599341</v>
+        <v>0.01120651476222736</v>
       </c>
       <c r="J3">
-        <v>0.01571144052599341</v>
+        <v>0.01120651476222736</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q3">
-        <v>3.768111967028889</v>
+        <v>2.694534028744444</v>
       </c>
       <c r="R3">
-        <v>33.91300770325999</v>
+        <v>24.2508062587</v>
       </c>
       <c r="S3">
-        <v>0.007689034112006604</v>
+        <v>0.01028876356378471</v>
       </c>
       <c r="T3">
-        <v>0.007689034112006603</v>
+        <v>0.01028876356378471</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4181183333333333</v>
+        <v>0.2989916666666667</v>
       </c>
       <c r="H4">
-        <v>1.254355</v>
+        <v>0.896975</v>
       </c>
       <c r="I4">
-        <v>0.01571144052599341</v>
+        <v>0.01120651476222736</v>
       </c>
       <c r="J4">
-        <v>0.01571144052599341</v>
+        <v>0.01120651476222736</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N4">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q4">
-        <v>0.1809439143238889</v>
+        <v>0.2072966033416666</v>
       </c>
       <c r="R4">
-        <v>1.628495228915</v>
+        <v>1.865669430075</v>
       </c>
       <c r="S4">
-        <v>0.0003692257400443949</v>
+        <v>0.0007915378750484333</v>
       </c>
       <c r="T4">
-        <v>0.0003692257400443948</v>
+        <v>0.0007915378750484335</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>74.672639</v>
       </c>
       <c r="I5">
-        <v>0.9353131502385497</v>
+        <v>0.9329357354307251</v>
       </c>
       <c r="J5">
-        <v>0.9353131502385496</v>
+        <v>0.9329357354307249</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N5">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O5">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P5">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q5">
-        <v>223.272385372224</v>
+        <v>2.751736528909333</v>
       </c>
       <c r="R5">
-        <v>2009.451468350016</v>
+        <v>24.765628760184</v>
       </c>
       <c r="S5">
-        <v>0.4555992503454591</v>
+        <v>0.01050718463146302</v>
       </c>
       <c r="T5">
-        <v>0.455599250345459</v>
+        <v>0.01050718463146302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>74.672639</v>
       </c>
       <c r="I6">
-        <v>0.9353131502385497</v>
+        <v>0.9329357354307251</v>
       </c>
       <c r="J6">
-        <v>0.9353131502385496</v>
+        <v>0.9329357354307249</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q6">
         <v>224.3183665114964</v>
@@ -818,10 +818,10 @@
         <v>2018.865298603468</v>
       </c>
       <c r="S6">
-        <v>0.4577336308338188</v>
+        <v>0.8565334901807177</v>
       </c>
       <c r="T6">
-        <v>0.4577336308338187</v>
+        <v>0.8565334901807177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>74.672639</v>
       </c>
       <c r="I7">
-        <v>0.9353131502385497</v>
+        <v>0.9329357354307251</v>
       </c>
       <c r="J7">
-        <v>0.9353131502385496</v>
+        <v>0.9329357354307249</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N7">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q7">
-        <v>10.77171900582744</v>
+        <v>17.25731979961366</v>
       </c>
       <c r="R7">
-        <v>96.945471052447</v>
+        <v>155.315878196523</v>
       </c>
       <c r="S7">
-        <v>0.02198026905927185</v>
+        <v>0.0658950606185443</v>
       </c>
       <c r="T7">
-        <v>0.02198026905927185</v>
+        <v>0.0658950606185443</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.303350666666667</v>
+        <v>1.490294</v>
       </c>
       <c r="H8">
-        <v>3.910052</v>
+        <v>4.470882</v>
       </c>
       <c r="I8">
-        <v>0.04897540923545694</v>
+        <v>0.05585774980704767</v>
       </c>
       <c r="J8">
-        <v>0.04897540923545693</v>
+        <v>0.05585774980704766</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N8">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O8">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P8">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q8">
-        <v>11.691118040832</v>
+        <v>0.164754982288</v>
       </c>
       <c r="R8">
-        <v>105.220062367488</v>
+        <v>1.482794840592</v>
       </c>
       <c r="S8">
-        <v>0.02385635199007448</v>
+        <v>0.0006290976623912361</v>
       </c>
       <c r="T8">
-        <v>0.02385635199007447</v>
+        <v>0.0006290976623912361</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.303350666666667</v>
+        <v>1.490294</v>
       </c>
       <c r="H9">
-        <v>3.910052</v>
+        <v>4.470882</v>
       </c>
       <c r="I9">
-        <v>0.04897540923545694</v>
+        <v>0.05585774980704767</v>
       </c>
       <c r="J9">
-        <v>0.04897540923545693</v>
+        <v>0.05585774980704766</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q9">
-        <v>11.74588831144711</v>
+        <v>13.43063484210933</v>
       </c>
       <c r="R9">
-        <v>105.712994803024</v>
+        <v>120.875713578984</v>
       </c>
       <c r="S9">
-        <v>0.02396811365819058</v>
+        <v>0.051283310927931</v>
       </c>
       <c r="T9">
-        <v>0.02396811365819058</v>
+        <v>0.051283310927931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.303350666666667</v>
+        <v>1.490294</v>
       </c>
       <c r="H10">
-        <v>3.910052</v>
+        <v>4.470882</v>
       </c>
       <c r="I10">
-        <v>0.04897540923545694</v>
+        <v>0.05585774980704767</v>
       </c>
       <c r="J10">
-        <v>0.04897540923545693</v>
+        <v>0.05585774980704766</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N10">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q10">
-        <v>0.5640349933551111</v>
+        <v>1.033249145786</v>
       </c>
       <c r="R10">
-        <v>5.076314940196</v>
+        <v>9.299242312073998</v>
       </c>
       <c r="S10">
-        <v>0.001150943587191877</v>
+        <v>0.003945341216725426</v>
       </c>
       <c r="T10">
-        <v>0.001150943587191877</v>
+        <v>0.003945341216725427</v>
       </c>
     </row>
   </sheetData>
